--- a/SPP_INC_R_SB.xlsx
+++ b/SPP_INC_R_SB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,17 +477,15 @@
       <c r="C2" t="n">
         <v>32825</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+      <c r="D2" t="n">
+        <v>1.787957445019856</v>
       </c>
       <c r="E2" t="n">
         <v>20</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -503,17 +501,15 @@
       <c r="C3" t="n">
         <v>39018</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+      <c r="D3" t="n">
+        <v>2.017620514961891</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -530,7 +526,7 @@
         <v>30695</v>
       </c>
       <c r="D4" t="n">
-        <v>0.560129659017548</v>
+        <v>0.5602604980231263</v>
       </c>
       <c r="E4" t="n">
         <v>20</v>
@@ -553,15 +549,943 @@
       <c r="C5" t="n">
         <v>80003</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+      <c r="D5" t="n">
+        <v>18.1606411790126</v>
       </c>
       <c r="E5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HT05(c2p2)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2887</v>
+      </c>
+      <c r="C6" t="n">
+        <v>83114</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3137902090093121</v>
+      </c>
+      <c r="E6" t="n">
+        <v>26</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HT06(c2p3)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2965</v>
+      </c>
+      <c r="C7" t="n">
+        <v>86955</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3422743490082212</v>
+      </c>
+      <c r="E7" t="n">
         <v>16</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HT07(c3p1)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5076</v>
+      </c>
+      <c r="C8" t="n">
+        <v>198789</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HT08(c3p2)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4894</v>
+      </c>
+      <c r="C9" t="n">
+        <v>187266</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>31</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HT09(c3p3)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4989</v>
+      </c>
+      <c r="C10" t="n">
+        <v>192646</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CGCUT01</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1181</v>
+      </c>
+      <c r="C11" t="n">
+        <v>27220</v>
+      </c>
+      <c r="D11" t="n">
+        <v>43.4807842419832</v>
+      </c>
+      <c r="E11" t="n">
+        <v>16</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CGCUT02</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7583</v>
+      </c>
+      <c r="C12" t="n">
+        <v>299155</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>112</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CGCUT03</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>107967</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12250290</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1342</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GCUT01</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11133</v>
+      </c>
+      <c r="C14" t="n">
+        <v>210138</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.422828908951487</v>
+      </c>
+      <c r="E14" t="n">
+        <v>696</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GCUT02</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>40760</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1568489</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1175</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GCUT03</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>78382</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4522295</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1793</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GCUT04</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>208937</v>
+      </c>
+      <c r="C17" t="n">
+        <v>20045246</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3147</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NGCUT01</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>712</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10323</v>
+      </c>
+      <c r="D18" t="n">
+        <v>29.10393689700868</v>
+      </c>
+      <c r="E18" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NGCUT02</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1946</v>
+      </c>
+      <c r="C19" t="n">
+        <v>48306</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.2815883989678696</v>
+      </c>
+      <c r="E19" t="n">
+        <v>28</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NGCUT03</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2254</v>
+      </c>
+      <c r="C20" t="n">
+        <v>58314</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1894514700397849</v>
+      </c>
+      <c r="E20" t="n">
+        <v>28</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NGCUT04</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>298</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3156</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.01221363001968712</v>
+      </c>
+      <c r="E21" t="n">
+        <v>12</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NGCUT05</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1150</v>
+      </c>
+      <c r="C22" t="n">
+        <v>24945</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1156303390162066</v>
+      </c>
+      <c r="E22" t="n">
+        <v>24</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NGCUT06</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1441</v>
+      </c>
+      <c r="C23" t="n">
+        <v>29933</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1791518199606799</v>
+      </c>
+      <c r="E23" t="n">
+        <v>20</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NGCUT07</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>542</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6642</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0233818200067617</v>
+      </c>
+      <c r="E24" t="n">
+        <v>20</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>NGCUT08</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1268</v>
+      </c>
+      <c r="C25" t="n">
+        <v>24316</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>33</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>NGCUT09</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2766</v>
+      </c>
+      <c r="C26" t="n">
+        <v>76789</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.136436936038081</v>
+      </c>
+      <c r="E26" t="n">
+        <v>49</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NGCUT10</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2688</v>
+      </c>
+      <c r="C27" t="n">
+        <v>60392</v>
+      </c>
+      <c r="D27" t="n">
+        <v>47.94176296098158</v>
+      </c>
+      <c r="E27" t="n">
+        <v>59</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NGCUT11</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2820</v>
+      </c>
+      <c r="C28" t="n">
+        <v>72428</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>51</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NGCUT12</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>6728</v>
+      </c>
+      <c r="C29" t="n">
+        <v>253651</v>
+      </c>
+      <c r="D29" t="n">
+        <v>264.8035077700042</v>
+      </c>
+      <c r="E29" t="n">
+        <v>77</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BENG01</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2343</v>
+      </c>
+      <c r="C30" t="n">
+        <v>63716</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.2403954190085642</v>
+      </c>
+      <c r="E30" t="n">
+        <v>30</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BENG02</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>8122</v>
+      </c>
+      <c r="C31" t="n">
+        <v>400453</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>58</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BENG03</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>16853</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1176950</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>86</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BENG04</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>28789</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2607488</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>110</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BENG05</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>43679</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4812050</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>138</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BENG06</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>7308</v>
+      </c>
+      <c r="C35" t="n">
+        <v>334579</v>
+      </c>
+      <c r="D35" t="n">
+        <v>20.42103678203421</v>
+      </c>
+      <c r="E35" t="n">
+        <v>36</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BENG07</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>25169</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2018908</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>72</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BENG08</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>53587</v>
+      </c>
+      <c r="C37" t="n">
+        <v>6045852</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>108</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BENG09</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>90803</v>
+      </c>
+      <c r="C38" t="n">
+        <v>12847416</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>135</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BENG10</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>140709</v>
+      </c>
+      <c r="C39" t="n">
+        <v>24566794</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>168</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>HT10(c4p1)</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>14784</v>
+      </c>
+      <c r="C40" t="n">
+        <v>981834</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>61</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>HT11(c4p2)</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>14884</v>
+      </c>
+      <c r="C41" t="n">
+        <v>990336</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>61</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>HT12(c4p3)</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>15134</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1013394</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>61</v>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>TIMEOUT</t>
         </is>

--- a/SPP_INC_R_SB.xlsx
+++ b/SPP_INC_R_SB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,20 +468,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HT01(c1p1)</t>
+          <t>CGCUT01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1528</v>
+        <v>1365</v>
       </c>
       <c r="C2" t="n">
-        <v>32825</v>
+        <v>28556</v>
       </c>
       <c r="D2" t="n">
-        <v>1.787957445019856</v>
+        <v>0.1381147579813842</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -492,68 +492,72 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HT02(c1p2)</t>
+          <t>CGCUT02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1710</v>
+        <v>5943</v>
       </c>
       <c r="C3" t="n">
-        <v>39018</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.017620514961891</v>
+        <v>228405</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HT03(c1p3)</t>
+          <t>CGCUT03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1460</v>
+        <v>62046</v>
       </c>
       <c r="C4" t="n">
-        <v>30695</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5602604980231263</v>
+        <v>6733773</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>720</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HT04(c2p1)</t>
+          <t>GCUT01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2809</v>
+        <v>1365</v>
       </c>
       <c r="C5" t="n">
-        <v>80003</v>
+        <v>28556</v>
       </c>
       <c r="D5" t="n">
-        <v>18.1606411790126</v>
+        <v>0.1106097419979051</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -564,62 +568,66 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HT05(c2p2)</t>
+          <t>GCUT02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2887</v>
+        <v>5943</v>
       </c>
       <c r="C6" t="n">
-        <v>83114</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.3137902090093121</v>
+        <v>228405</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HT06(c2p3)</t>
+          <t>GCUT03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2965</v>
+        <v>62046</v>
       </c>
       <c r="C7" t="n">
-        <v>86955</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.3422743490082212</v>
+        <v>6733773</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>16</v>
+        <v>720</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HT07(c3p1)</t>
+          <t>GCUT04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5076</v>
+        <v>213629</v>
       </c>
       <c r="C8" t="n">
-        <v>198789</v>
+        <v>20525558</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -627,7 +635,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>3170</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -638,72 +646,68 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HT08(c3p2)</t>
+          <t>NGCUT01</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4894</v>
+        <v>723</v>
       </c>
       <c r="C9" t="n">
-        <v>187266</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+        <v>10534</v>
+      </c>
+      <c r="D9" t="n">
+        <v>42.12943708899547</v>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HT09(c3p3)</t>
+          <t>NGCUT02</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4989</v>
+        <v>1856</v>
       </c>
       <c r="C10" t="n">
-        <v>192646</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+        <v>45986</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1962548839801457</v>
       </c>
       <c r="E10" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CGCUT01</t>
+          <t>NGCUT03</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1181</v>
+        <v>2342</v>
       </c>
       <c r="C11" t="n">
-        <v>27220</v>
+        <v>62650</v>
       </c>
       <c r="D11" t="n">
-        <v>43.4807842419832</v>
+        <v>0.2315558510017581</v>
       </c>
       <c r="E11" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -714,72 +718,68 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CGCUT02</t>
+          <t>NGCUT04</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7583</v>
+        <v>385</v>
       </c>
       <c r="C12" t="n">
-        <v>299155</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+        <v>4551</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01957033798680641</v>
       </c>
       <c r="E12" t="n">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CGCUT03</t>
+          <t>NGCUT05</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>107967</v>
+        <v>1203</v>
       </c>
       <c r="C13" t="n">
-        <v>12250290</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+        <v>22904</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3977641969977412</v>
       </c>
       <c r="E13" t="n">
-        <v>1342</v>
+        <v>36</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GCUT01</t>
+          <t>NGCUT06</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11133</v>
+        <v>1661</v>
       </c>
       <c r="C14" t="n">
-        <v>210138</v>
+        <v>37163</v>
       </c>
       <c r="D14" t="n">
-        <v>4.422828908951487</v>
+        <v>59.41335369698936</v>
       </c>
       <c r="E14" t="n">
-        <v>696</v>
+        <v>29</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -790,98 +790,92 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GCUT02</t>
+          <t>NGCUT07</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>40760</v>
+        <v>603</v>
       </c>
       <c r="C15" t="n">
-        <v>1568489</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+        <v>8514</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03117905699764378</v>
       </c>
       <c r="E15" t="n">
-        <v>1175</v>
+        <v>20</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GCUT03</t>
+          <t>NGCUT08</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78382</v>
+        <v>1520</v>
       </c>
       <c r="C16" t="n">
-        <v>4522295</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+        <v>30652</v>
+      </c>
+      <c r="D16" t="n">
+        <v>778.2239973540127</v>
       </c>
       <c r="E16" t="n">
-        <v>1793</v>
+        <v>33</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GCUT04</t>
+          <t>NGCUT09</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>208937</v>
+        <v>2975</v>
       </c>
       <c r="C17" t="n">
-        <v>20045246</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+        <v>83350</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.499641223985236</v>
       </c>
       <c r="E17" t="n">
-        <v>3147</v>
+        <v>49</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NGCUT01</t>
+          <t>NGCUT10</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>712</v>
+        <v>3052</v>
       </c>
       <c r="C18" t="n">
-        <v>10323</v>
+        <v>75736</v>
       </c>
       <c r="D18" t="n">
-        <v>29.10393689700868</v>
+        <v>75.36637827300001</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -892,20 +886,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NGCUT02</t>
+          <t>NGCUT11</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1946</v>
+        <v>2916</v>
       </c>
       <c r="C19" t="n">
-        <v>48306</v>
+        <v>77940</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2815883989678696</v>
+        <v>1250.931718709995</v>
       </c>
       <c r="E19" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -916,20 +910,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NGCUT03</t>
+          <t>NGCUT12</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2254</v>
+        <v>5509</v>
       </c>
       <c r="C20" t="n">
-        <v>58314</v>
+        <v>198404</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1894514700397849</v>
+        <v>134.5499391070043</v>
       </c>
       <c r="E20" t="n">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -940,20 +934,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NGCUT04</t>
+          <t>BENG01</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>298</v>
+        <v>2448</v>
       </c>
       <c r="C21" t="n">
-        <v>3156</v>
+        <v>67033</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01221363001968712</v>
+        <v>0.2247916829946917</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -964,20 +958,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NGCUT05</t>
+          <t>BENG02</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1150</v>
+        <v>7958</v>
       </c>
       <c r="C22" t="n">
-        <v>24945</v>
+        <v>393013</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1156303390162066</v>
+        <v>1004.102851278993</v>
       </c>
       <c r="E22" t="n">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -988,62 +982,66 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NGCUT06</t>
+          <t>BENG03</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1441</v>
+        <v>16975</v>
       </c>
       <c r="C23" t="n">
-        <v>29933</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.1791518199606799</v>
+        <v>1210004</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NGCUT07</t>
+          <t>BENG04</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>542</v>
+        <v>28546</v>
       </c>
       <c r="C24" t="n">
-        <v>6642</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.0233818200067617</v>
+        <v>2576501</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E24" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NGCUT08</t>
+          <t>BENG05</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1268</v>
+        <v>44184</v>
       </c>
       <c r="C25" t="n">
-        <v>24316</v>
+        <v>4941819</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1051,7 +1049,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1062,20 +1060,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NGCUT09</t>
+          <t>BENG06</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2766</v>
+        <v>7185</v>
       </c>
       <c r="C26" t="n">
-        <v>76789</v>
+        <v>328384</v>
       </c>
       <c r="D26" t="n">
-        <v>1.136436936038081</v>
+        <v>12.76754179899581</v>
       </c>
       <c r="E26" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1086,38 +1084,40 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NGCUT10</t>
+          <t>BENG07</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2688</v>
+        <v>25331</v>
       </c>
       <c r="C27" t="n">
-        <v>60392</v>
-      </c>
-      <c r="D27" t="n">
-        <v>47.94176296098158</v>
+        <v>2050766</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E27" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NGCUT11</t>
+          <t>BENG08</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2820</v>
+        <v>53103</v>
       </c>
       <c r="C28" t="n">
-        <v>72428</v>
+        <v>5950344</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1136,356 +1136,50 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NGCUT12</t>
+          <t>BENG09</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6728</v>
+        <v>92735</v>
       </c>
       <c r="C29" t="n">
-        <v>253651</v>
-      </c>
-      <c r="D29" t="n">
-        <v>264.8035077700042</v>
+        <v>13514188</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E29" t="n">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BENG01</t>
+          <t>BENG10</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2343</v>
+        <v>141312</v>
       </c>
       <c r="C30" t="n">
-        <v>63716</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.2403954190085642</v>
+        <v>24894125</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="F30" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>BENG02</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>8122</v>
-      </c>
-      <c r="C31" t="n">
-        <v>400453</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>58</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>BENG03</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>16853</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1176950</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>86</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>BENG04</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>28789</v>
-      </c>
-      <c r="C33" t="n">
-        <v>2607488</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>110</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>BENG05</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>43679</v>
-      </c>
-      <c r="C34" t="n">
-        <v>4812050</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>138</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>BENG06</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>7308</v>
-      </c>
-      <c r="C35" t="n">
-        <v>334579</v>
-      </c>
-      <c r="D35" t="n">
-        <v>20.42103678203421</v>
-      </c>
-      <c r="E35" t="n">
-        <v>36</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>BENG07</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>25169</v>
-      </c>
-      <c r="C36" t="n">
-        <v>2018908</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>72</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>BENG08</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>53587</v>
-      </c>
-      <c r="C37" t="n">
-        <v>6045852</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>108</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>BENG09</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>90803</v>
-      </c>
-      <c r="C38" t="n">
-        <v>12847416</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>135</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>BENG10</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>140709</v>
-      </c>
-      <c r="C39" t="n">
-        <v>24566794</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>168</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>HT10(c4p1)</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>14784</v>
-      </c>
-      <c r="C40" t="n">
-        <v>981834</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>61</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>HT11(c4p2)</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>14884</v>
-      </c>
-      <c r="C41" t="n">
-        <v>990336</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>61</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>HT12(c4p3)</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>15134</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1013394</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>61</v>
-      </c>
-      <c r="F42" t="inlineStr">
         <is>
           <t>TIMEOUT</t>
         </is>
